--- a/results/mp/logistic/corona/confidence/42/0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,46 +55,46 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>fresh</t>
@@ -103,34 +103,37 @@
     <t>better</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>relief</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>care</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
@@ -491,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,7 +505,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -584,13 +587,13 @@
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -602,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -610,13 +613,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4021164021164021</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C4">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D4">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,19 +631,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -652,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -660,13 +663,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3158914728682171</v>
+        <v>0.3197674418604651</v>
       </c>
       <c r="C5">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D5">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -702,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -734,13 +737,13 @@
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.9152542372881356</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -752,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -760,13 +763,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8839285714285714</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L7">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="M7">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -778,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -786,13 +789,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8172323759791122</v>
+        <v>0.7989556135770235</v>
       </c>
       <c r="L8">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="M8">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -804,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -812,13 +815,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8048780487804879</v>
+        <v>0.79375</v>
       </c>
       <c r="L9">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="M9">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -830,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -864,13 +867,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.78125</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -882,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -890,13 +893,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7758620689655172</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -908,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -916,13 +919,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7746478873239436</v>
+        <v>0.7734375</v>
       </c>
       <c r="L13">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="M13">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -934,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -994,13 +997,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.73125</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L16">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1012,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1046,13 +1049,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1064,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1072,7 +1075,7 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.7021276595744681</v>
+        <v>0.66</v>
       </c>
       <c r="L19">
         <v>33</v>
@@ -1090,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1124,13 +1127,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6147058823529412</v>
+        <v>0.625</v>
       </c>
       <c r="L21">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1142,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>131</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1153,10 +1156,10 @@
         <v>0.6</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>204</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>204</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1168,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1176,13 +1179,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5846153846153846</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1194,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>27</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1202,13 +1205,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5531914893617021</v>
+        <v>0.5559322033898305</v>
       </c>
       <c r="L24">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="M24">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1220,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>42</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1228,13 +1231,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5523012552301255</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L25">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="M25">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1246,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>107</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1254,13 +1257,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5491525423728814</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L26">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="M26">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1272,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>133</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1280,13 +1283,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.5142857142857142</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1298,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1306,13 +1309,13 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.4157303370786517</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L28">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1324,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1332,24 +1335,50 @@
         <v>39</v>
       </c>
       <c r="K29">
+        <v>0.3698630136986301</v>
+      </c>
+      <c r="L29">
+        <v>27</v>
+      </c>
+      <c r="M29">
+        <v>27</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30">
         <v>0.3205128205128205</v>
       </c>
-      <c r="L29">
+      <c r="L30">
         <v>25</v>
       </c>
-      <c r="M29">
+      <c r="M30">
         <v>25</v>
       </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>53</v>
       </c>
     </row>
